--- a/src/main/resources/resource/Scene.xlsx
+++ b/src/main/resources/resource/Scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>sceneId</t>
   </si>
@@ -25,6 +25,9 @@
     <t>neighbors</t>
   </si>
   <si>
+    <t>mapId</t>
+  </si>
+  <si>
     <t>s2001</t>
   </si>
   <si>
@@ -34,12 +37,18 @@
     <t>s2002</t>
   </si>
   <si>
+    <t>m1001</t>
+  </si>
+  <si>
     <t>东山口</t>
   </si>
   <si>
     <t>s2001,s2003</t>
   </si>
   <si>
+    <t>m1002</t>
+  </si>
+  <si>
     <t>s2003</t>
   </si>
   <si>
@@ -49,10 +58,16 @@
     <t>s2002,s2004</t>
   </si>
   <si>
+    <t>m1003</t>
+  </si>
+  <si>
     <t>s2004</t>
   </si>
   <si>
     <t>团一大</t>
+  </si>
+  <si>
+    <t>m1004</t>
   </si>
 </sst>
 </file>
@@ -61,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,8 +89,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,45 +181,38 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,83 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,19 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,157 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,18 +439,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -456,6 +469,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,17 +493,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,20 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,19 +1002,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,49 +1024,64 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="16" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="24" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="22" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16" customHeight="1" spans="1:4">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/Scene.xlsx
+++ b/src/main/resources/resource/Scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>sceneId</t>
   </si>
@@ -25,7 +25,19 @@
     <t>neighbors</t>
   </si>
   <si>
-    <t>mapId</t>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>sceneMap</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>s2001</t>
@@ -37,7 +49,12 @@
     <t>s2002</t>
   </si>
   <si>
-    <t>m1001</t>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1
+1,1,1,1,1,1,0,0,1,1,1,1,1,1,1
+1,1,1,1,1,1,0,0,1,1,1,1,1,1,1
+1,1,1,1,1,1,0,1,0,0,1,1,1,1,1
+1,1,1,1,0,0,0,0,1,0,1,1,1,1,1
+1,1,1,1,1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
     <t>东山口</t>
@@ -46,9 +63,6 @@
     <t>s2001,s2003</t>
   </si>
   <si>
-    <t>m1002</t>
-  </si>
-  <si>
     <t>s2003</t>
   </si>
   <si>
@@ -58,16 +72,10 @@
     <t>s2002,s2004</t>
   </si>
   <si>
-    <t>m1003</t>
-  </si>
-  <si>
     <t>s2004</t>
   </si>
   <si>
     <t>团一大</t>
-  </si>
-  <si>
-    <t>m1004</t>
   </si>
 </sst>
 </file>
@@ -75,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,9 +99,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,106 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +225,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +262,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,133 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,24 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,6 +461,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -478,28 +488,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,16 +527,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -539,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,16 +559,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,106 +580,103 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,9 +685,15 @@
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1002,19 +1013,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="17.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="36.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,61 +1039,121 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:4">
+    <row r="2" ht="94" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1" spans="1:4">
+    <row r="3" ht="86" customHeight="1" spans="1:8">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1" spans="1:4">
+    <row r="4" ht="87" customHeight="1" spans="1:8">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="95" customHeight="1" spans="1:8">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/Scene.xlsx
+++ b/src/main/resources/resource/Scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>sceneId</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>npcs</t>
+  </si>
+  <si>
+    <t>monsters</t>
   </si>
   <si>
     <t>s2001</t>
@@ -57,6 +63,12 @@
 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
+    <t>n2001,n2002</t>
+  </si>
+  <si>
+    <t>m1001,m2002</t>
+  </si>
+  <si>
     <t>东山口</t>
   </si>
   <si>
@@ -83,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,44 +106,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +118,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -151,6 +140,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -164,13 +174,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -178,16 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,15 +200,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,17 +214,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,31 +262,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,31 +406,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,115 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +453,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,15 +520,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,16 +571,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,112 +592,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,20 +1025,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="17.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="36.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="21.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,16 +1065,22 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="94" customHeight="1" spans="1:8">
+    <row r="2" ht="94" customHeight="1" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -1069,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1077,16 +1097,22 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" ht="86" customHeight="1" spans="1:8">
+    <row r="3" ht="86" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -1095,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1103,16 +1129,22 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="87" customHeight="1" spans="1:8">
+    <row r="4" ht="87" customHeight="1" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1121,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1129,16 +1161,22 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" ht="95" customHeight="1" spans="1:8">
+    <row r="5" ht="95" customHeight="1" spans="1:10">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1147,13 +1185,19 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
